--- a/Code/Results/Cases/Case_1_243/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_243/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9773010332741475</v>
+        <v>1.012646048344971</v>
       </c>
       <c r="D2">
-        <v>1.045023664615416</v>
+        <v>1.049514405841244</v>
       </c>
       <c r="E2">
-        <v>0.9868557805450833</v>
+        <v>1.01466339299724</v>
       </c>
       <c r="F2">
-        <v>1.038250557377306</v>
+        <v>1.051573407879197</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054449437877184</v>
+        <v>1.038803366697091</v>
       </c>
       <c r="J2">
-        <v>1.000182531476388</v>
+        <v>1.01788756760643</v>
       </c>
       <c r="K2">
-        <v>1.055889457336342</v>
+        <v>1.0522712518193</v>
       </c>
       <c r="L2">
-        <v>0.9985013242790224</v>
+        <v>1.017520870022129</v>
       </c>
       <c r="M2">
-        <v>1.049201530980095</v>
+        <v>1.054324534896809</v>
       </c>
       <c r="N2">
-        <v>1.004004679222087</v>
+        <v>1.010073930159328</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9815029378497091</v>
+        <v>1.013549519963768</v>
       </c>
       <c r="D3">
-        <v>1.047719211873955</v>
+        <v>1.050089998678811</v>
       </c>
       <c r="E3">
-        <v>0.990166651784032</v>
+        <v>1.015428324143953</v>
       </c>
       <c r="F3">
-        <v>1.041580271031763</v>
+        <v>1.052314638827817</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055207166010439</v>
+        <v>1.038899930785042</v>
       </c>
       <c r="J3">
-        <v>1.002510875057892</v>
+        <v>1.018425072773582</v>
       </c>
       <c r="K3">
-        <v>1.057775861704386</v>
+        <v>1.052659717375361</v>
       </c>
       <c r="L3">
-        <v>1.000926917780806</v>
+        <v>1.018090907799843</v>
       </c>
       <c r="M3">
-        <v>1.051707393310739</v>
+        <v>1.054878622829201</v>
       </c>
       <c r="N3">
-        <v>1.004802838473245</v>
+        <v>1.010255078974674</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9841712097701139</v>
+        <v>1.014134964783015</v>
       </c>
       <c r="D4">
-        <v>1.049430679026218</v>
+        <v>1.050462293400085</v>
       </c>
       <c r="E4">
-        <v>0.9922757098653261</v>
+        <v>1.01592439557604</v>
       </c>
       <c r="F4">
-        <v>1.043696752862201</v>
+        <v>1.052794532978703</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055677235941793</v>
+        <v>1.038961038847567</v>
       </c>
       <c r="J4">
-        <v>1.003988671263164</v>
+        <v>1.018773122249264</v>
       </c>
       <c r="K4">
-        <v>1.058966992242402</v>
+        <v>1.052910226330724</v>
       </c>
       <c r="L4">
-        <v>1.002468263015124</v>
+        <v>1.018460212566834</v>
       </c>
       <c r="M4">
-        <v>1.053294919514139</v>
+        <v>1.05523675501084</v>
       </c>
       <c r="N4">
-        <v>1.005308954366554</v>
+        <v>1.010372282890692</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9852812461775947</v>
+        <v>1.014381285224642</v>
       </c>
       <c r="D5">
-        <v>1.05014250264719</v>
+        <v>1.050618767394655</v>
       </c>
       <c r="E5">
-        <v>0.9931546451724739</v>
+        <v>1.016133208115818</v>
       </c>
       <c r="F5">
-        <v>1.044577627618545</v>
+        <v>1.052996342327701</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05587006850145</v>
+        <v>1.038986398566641</v>
       </c>
       <c r="J5">
-        <v>1.004603246716072</v>
+        <v>1.018919500447361</v>
       </c>
       <c r="K5">
-        <v>1.059460803648935</v>
+        <v>1.05301533404406</v>
       </c>
       <c r="L5">
-        <v>1.003109701724914</v>
+        <v>1.018615575347287</v>
       </c>
       <c r="M5">
-        <v>1.053954361188612</v>
+        <v>1.055387216078205</v>
       </c>
       <c r="N5">
-        <v>1.005519315707793</v>
+        <v>1.010421552222402</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.985466951591515</v>
+        <v>1.014422655169865</v>
       </c>
       <c r="D6">
-        <v>1.050261575274823</v>
+        <v>1.050645037731904</v>
       </c>
       <c r="E6">
-        <v>0.9933017773146572</v>
+        <v>1.016168284101487</v>
       </c>
       <c r="F6">
-        <v>1.044725015000364</v>
+        <v>1.053030230563736</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055902166999545</v>
+        <v>1.038990637192582</v>
       </c>
       <c r="J6">
-        <v>1.00470605009477</v>
+        <v>1.018944081371784</v>
       </c>
       <c r="K6">
-        <v>1.059543313257095</v>
+        <v>1.053032969946069</v>
       </c>
       <c r="L6">
-        <v>1.003217024154195</v>
+        <v>1.018641667684639</v>
       </c>
       <c r="M6">
-        <v>1.054064622697744</v>
+        <v>1.055412473366001</v>
       </c>
       <c r="N6">
-        <v>1.005554496888602</v>
+        <v>1.010429824559692</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9841860875833814</v>
+        <v>1.014138255346696</v>
       </c>
       <c r="D7">
-        <v>1.049440220407229</v>
+        <v>1.050464384368182</v>
       </c>
       <c r="E7">
-        <v>0.9922874842125269</v>
+        <v>1.015927184703638</v>
       </c>
       <c r="F7">
-        <v>1.043708557817524</v>
+        <v>1.052797229325055</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055679831304886</v>
+        <v>1.038961379003549</v>
       </c>
       <c r="J7">
-        <v>1.003996909273674</v>
+        <v>1.018775077934608</v>
       </c>
       <c r="K7">
-        <v>1.058973617684336</v>
+        <v>1.052911631597771</v>
       </c>
       <c r="L7">
-        <v>1.002476859397176</v>
+        <v>1.018462288112761</v>
       </c>
       <c r="M7">
-        <v>1.053303762040728</v>
+        <v>1.055238765865416</v>
       </c>
       <c r="N7">
-        <v>1.005311774606906</v>
+        <v>1.010372941243026</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9787318304718856</v>
+        <v>1.012951206490113</v>
       </c>
       <c r="D8">
-        <v>1.045941512658697</v>
+        <v>1.049708960334244</v>
       </c>
       <c r="E8">
-        <v>0.9879817587001474</v>
+        <v>1.014921674308181</v>
       </c>
       <c r="F8">
-        <v>1.039383866039518</v>
+        <v>1.051823853412143</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054709740678639</v>
+        <v>1.038836285251459</v>
       </c>
       <c r="J8">
-        <v>1.000975494790518</v>
+        <v>1.01806916804702</v>
       </c>
       <c r="K8">
-        <v>1.056533159891146</v>
+        <v>1.0524027113997</v>
       </c>
       <c r="L8">
-        <v>0.9993270238572088</v>
+        <v>1.017713422601904</v>
       </c>
       <c r="M8">
-        <v>1.050055529663312</v>
+        <v>1.054511873081068</v>
       </c>
       <c r="N8">
-        <v>1.004276604646875</v>
+        <v>1.010135152358495</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9687130558035343</v>
+        <v>1.01086595001112</v>
       </c>
       <c r="D9">
-        <v>1.039518179298625</v>
+        <v>1.048376738660991</v>
       </c>
       <c r="E9">
-        <v>0.9801273011340706</v>
+        <v>1.013158406652278</v>
       </c>
       <c r="F9">
-        <v>1.031461380634017</v>
+        <v>1.050110798263228</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052842600658562</v>
+        <v>1.038605357832151</v>
       </c>
       <c r="J9">
-        <v>0.9954211604909184</v>
+        <v>1.016827210280421</v>
       </c>
       <c r="K9">
-        <v>1.052001063151638</v>
+        <v>1.051499463574233</v>
       </c>
       <c r="L9">
-        <v>0.993551243448423</v>
+        <v>1.016397342479376</v>
       </c>
       <c r="M9">
-        <v>1.044063838641592</v>
+        <v>1.053228021616085</v>
       </c>
       <c r="N9">
-        <v>1.002370080054607</v>
+        <v>1.009716069758664</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.961730401700081</v>
+        <v>1.009480206423023</v>
       </c>
       <c r="D10">
-        <v>1.035051413260977</v>
+        <v>1.047488006061471</v>
       </c>
       <c r="E10">
-        <v>0.9746933338241064</v>
+        <v>1.011988751501408</v>
       </c>
       <c r="F10">
-        <v>1.02596168011273</v>
+        <v>1.048970352184437</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051487695932294</v>
+        <v>1.038444399525735</v>
       </c>
       <c r="J10">
-        <v>0.9915491982652498</v>
+        <v>1.016000611978144</v>
       </c>
       <c r="K10">
-        <v>1.048815385720244</v>
+        <v>1.050893055294736</v>
       </c>
       <c r="L10">
-        <v>0.9895350517221918</v>
+        <v>1.015522391729899</v>
       </c>
       <c r="M10">
-        <v>1.039877493006474</v>
+        <v>1.052370240413999</v>
       </c>
       <c r="N10">
-        <v>1.00103893889868</v>
+        <v>1.009436662055396</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9586277851966017</v>
+        <v>1.008881229647502</v>
       </c>
       <c r="D11">
-        <v>1.033070879325279</v>
+        <v>1.047103064505667</v>
       </c>
       <c r="E11">
-        <v>0.972289176902867</v>
+        <v>1.011483686956871</v>
       </c>
       <c r="F11">
-        <v>1.023524939566379</v>
+        <v>1.048476933331566</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050873897774446</v>
+        <v>1.038373051525875</v>
       </c>
       <c r="J11">
-        <v>0.9898290626045149</v>
+        <v>1.015643025308107</v>
       </c>
       <c r="K11">
-        <v>1.047394960822987</v>
+        <v>1.050629489363753</v>
       </c>
       <c r="L11">
-        <v>0.9877533084796661</v>
+        <v>1.015144121257898</v>
       </c>
       <c r="M11">
-        <v>1.038016440276679</v>
+        <v>1.051998390849902</v>
       </c>
       <c r="N11">
-        <v>1.000447147813367</v>
+        <v>1.009315676442769</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9574628064608636</v>
+        <v>1.008658903373573</v>
       </c>
       <c r="D12">
-        <v>1.032328014832088</v>
+        <v>1.046960065156247</v>
       </c>
       <c r="E12">
-        <v>0.9713880792560037</v>
+        <v>1.011296296024092</v>
       </c>
       <c r="F12">
-        <v>1.022611186678476</v>
+        <v>1.048293718366304</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05064174210566</v>
+        <v>1.038346302348901</v>
       </c>
       <c r="J12">
-        <v>0.9891832709260512</v>
+        <v>1.01551025325309</v>
       </c>
       <c r="K12">
-        <v>1.046861006990362</v>
+        <v>1.050531442699739</v>
       </c>
       <c r="L12">
-        <v>0.9870847637908807</v>
+        <v>1.015003704460805</v>
       </c>
       <c r="M12">
-        <v>1.037317645252596</v>
+        <v>1.051860207593467</v>
       </c>
       <c r="N12">
-        <v>1.000224913345526</v>
+        <v>1.009270737411528</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9577132761855124</v>
+        <v>1.008706585837371</v>
       </c>
       <c r="D13">
-        <v>1.032487691801562</v>
+        <v>1.046990739640538</v>
       </c>
       <c r="E13">
-        <v>0.9715817402725934</v>
+        <v>1.011336482372077</v>
       </c>
       <c r="F13">
-        <v>1.022807586137405</v>
+        <v>1.04833301571957</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050691730203351</v>
+        <v>1.038352051317941</v>
       </c>
       <c r="J13">
-        <v>0.9893221109739861</v>
+        <v>1.015538730958941</v>
       </c>
       <c r="K13">
-        <v>1.046975832087797</v>
+        <v>1.050552480645043</v>
       </c>
       <c r="L13">
-        <v>0.987228478450355</v>
+        <v>1.015033820261919</v>
       </c>
       <c r="M13">
-        <v>1.037467883583424</v>
+        <v>1.051889851133868</v>
       </c>
       <c r="N13">
-        <v>1.000272694499125</v>
+        <v>1.009280376960445</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9585317471726226</v>
+        <v>1.00886284880979</v>
       </c>
       <c r="D14">
-        <v>1.033009622322887</v>
+        <v>1.047091244425948</v>
       </c>
       <c r="E14">
-        <v>0.9722148592123815</v>
+        <v>1.011468192819089</v>
       </c>
       <c r="F14">
-        <v>1.023449586647095</v>
+        <v>1.048461787431135</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05085479319123</v>
+        <v>1.038370845471637</v>
       </c>
       <c r="J14">
-        <v>0.9897758230229573</v>
+        <v>1.015632049270542</v>
       </c>
       <c r="K14">
-        <v>1.04735095456592</v>
+        <v>1.050621387775144</v>
       </c>
       <c r="L14">
-        <v>0.9876981854348484</v>
+        <v>1.01513251252481</v>
       </c>
       <c r="M14">
-        <v>1.037958832536579</v>
+        <v>1.051986969827245</v>
       </c>
       <c r="N14">
-        <v>1.000428827769187</v>
+        <v>1.009311961757433</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9590343538691714</v>
+        <v>1.00895914887148</v>
       </c>
       <c r="D15">
-        <v>1.033330238811204</v>
+        <v>1.047153166832926</v>
       </c>
       <c r="E15">
-        <v>0.9726038609672593</v>
+        <v>1.011549372182659</v>
       </c>
       <c r="F15">
-        <v>1.023843989555918</v>
+        <v>1.048541136321339</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050954707170319</v>
+        <v>1.038382392418432</v>
       </c>
       <c r="J15">
-        <v>0.9900544516864028</v>
+        <v>1.015689552626729</v>
       </c>
       <c r="K15">
-        <v>1.047581233475606</v>
+        <v>1.050663824366693</v>
       </c>
       <c r="L15">
-        <v>0.987986686561556</v>
+        <v>1.01519333200744</v>
       </c>
       <c r="M15">
-        <v>1.038260318415214</v>
+        <v>1.052046799734717</v>
       </c>
       <c r="N15">
-        <v>1.000524703157571</v>
+        <v>1.009331422261281</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9619345916659748</v>
+        <v>1.009519980961683</v>
       </c>
       <c r="D16">
-        <v>1.035181857460417</v>
+        <v>1.047513551147912</v>
       </c>
       <c r="E16">
-        <v>0.9748517778414189</v>
+        <v>1.012022300687189</v>
       </c>
       <c r="F16">
-        <v>1.026122205351374</v>
+        <v>1.049003107439357</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051527852847817</v>
+        <v>1.038449099923684</v>
       </c>
       <c r="J16">
-        <v>0.9916624141199515</v>
+        <v>1.01602435099742</v>
       </c>
       <c r="K16">
-        <v>1.04890877521979</v>
+        <v>1.050910526650357</v>
       </c>
       <c r="L16">
-        <v>0.9896523743859987</v>
+        <v>1.015547508807783</v>
       </c>
       <c r="M16">
-        <v>1.039999965096915</v>
+        <v>1.052394910071232</v>
       </c>
       <c r="N16">
-        <v>1.001077881017182</v>
+        <v>1.009444691505307</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9637322178730852</v>
+        <v>1.009872060587145</v>
       </c>
       <c r="D17">
-        <v>1.036330745281886</v>
+        <v>1.047739581673024</v>
       </c>
       <c r="E17">
-        <v>0.9762478558704869</v>
+        <v>1.012319333234354</v>
       </c>
       <c r="F17">
-        <v>1.027536231224089</v>
+        <v>1.049292998990175</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051880050573419</v>
+        <v>1.038490502087838</v>
       </c>
       <c r="J17">
-        <v>0.992659171501809</v>
+        <v>1.016234451861336</v>
       </c>
       <c r="K17">
-        <v>1.049730401961682</v>
+        <v>1.051065013436487</v>
       </c>
       <c r="L17">
-        <v>0.9906855701175346</v>
+        <v>1.015769833098184</v>
       </c>
       <c r="M17">
-        <v>1.041078082709085</v>
+        <v>1.052613158231265</v>
       </c>
       <c r="N17">
-        <v>1.001420681326501</v>
+        <v>1.009515742562786</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9647731585863277</v>
+        <v>1.01007752480528</v>
       </c>
       <c r="D18">
-        <v>1.036996412268443</v>
+        <v>1.047871410256304</v>
       </c>
       <c r="E18">
-        <v>0.9770572509854101</v>
+        <v>1.012492722637071</v>
       </c>
       <c r="F18">
-        <v>1.028355692604725</v>
+        <v>1.049462126437051</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052082871646981</v>
+        <v>1.038514491820288</v>
       </c>
       <c r="J18">
-        <v>0.9932363834528568</v>
+        <v>1.016357032471509</v>
       </c>
       <c r="K18">
-        <v>1.050205699478048</v>
+        <v>1.051155027601911</v>
       </c>
       <c r="L18">
-        <v>0.99128411715793</v>
+        <v>1.015899567841708</v>
       </c>
       <c r="M18">
-        <v>1.041702284591649</v>
+        <v>1.052740417583015</v>
       </c>
       <c r="N18">
-        <v>1.001619152578717</v>
+        <v>1.009557185390018</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9651268250270614</v>
+        <v>1.010147600080009</v>
       </c>
       <c r="D19">
-        <v>1.037222637990667</v>
+        <v>1.047916358427537</v>
       </c>
       <c r="E19">
-        <v>0.9773324119004752</v>
+        <v>1.0125518668501</v>
       </c>
       <c r="F19">
-        <v>1.028634215666219</v>
+        <v>1.049519801001709</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052151588350893</v>
+        <v>1.038522644628141</v>
       </c>
       <c r="J19">
-        <v>0.993432498052035</v>
+        <v>1.016398834742303</v>
       </c>
       <c r="K19">
-        <v>1.050367100190403</v>
+        <v>1.051185703877111</v>
       </c>
       <c r="L19">
-        <v>0.9914875201376222</v>
+        <v>1.015943813624924</v>
       </c>
       <c r="M19">
-        <v>1.041914340785345</v>
+        <v>1.05278380269903</v>
       </c>
       <c r="N19">
-        <v>1.001686578425118</v>
+        <v>1.009571316300615</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9635401386126887</v>
+        <v>1.009834275202882</v>
       </c>
       <c r="D20">
-        <v>1.036207943457553</v>
+        <v>1.047715331878579</v>
       </c>
       <c r="E20">
-        <v>0.9760985809049844</v>
+        <v>1.012287450442286</v>
       </c>
       <c r="F20">
-        <v>1.02738507178383</v>
+        <v>1.049261892359374</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051842533678309</v>
+        <v>1.038486076513988</v>
       </c>
       <c r="J20">
-        <v>0.9925526634045938</v>
+        <v>1.016211906674948</v>
       </c>
       <c r="K20">
-        <v>1.049642658377083</v>
+        <v>1.051048448317499</v>
       </c>
       <c r="L20">
-        <v>0.9905751441033139</v>
+        <v>1.01574597392759</v>
       </c>
       <c r="M20">
-        <v>1.040962893234658</v>
+        <v>1.052589746506485</v>
       </c>
       <c r="N20">
-        <v>1.001384055739183</v>
+        <v>1.009508119458941</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9582910791424527</v>
+        <v>1.008816828822374</v>
       </c>
       <c r="D21">
-        <v>1.032856127671898</v>
+        <v>1.047061648665127</v>
       </c>
       <c r="E21">
-        <v>0.9720286479726448</v>
+        <v>1.011429401495493</v>
       </c>
       <c r="F21">
-        <v>1.023260774683532</v>
+        <v>1.048423865619759</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050806890892909</v>
+        <v>1.038365317883223</v>
       </c>
       <c r="J21">
-        <v>0.9896424080328942</v>
+        <v>1.015604567921654</v>
       </c>
       <c r="K21">
-        <v>1.04724066702464</v>
+        <v>1.05060110037392</v>
       </c>
       <c r="L21">
-        <v>0.9875600566907757</v>
+        <v>1.01510344762737</v>
       </c>
       <c r="M21">
-        <v>1.037814469939711</v>
+        <v>1.051958372481621</v>
       </c>
       <c r="N21">
-        <v>1.000382917996057</v>
+        <v>1.00930266080698</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9549179464045335</v>
+        <v>1.008178048358253</v>
       </c>
       <c r="D22">
-        <v>1.030706890132444</v>
+        <v>1.046650566908443</v>
       </c>
       <c r="E22">
-        <v>0.9694227198728742</v>
+        <v>1.010891142481755</v>
       </c>
       <c r="F22">
-        <v>1.0206175082703</v>
+        <v>1.047897329275079</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050131602834437</v>
+        <v>1.038287961445338</v>
       </c>
       <c r="J22">
-        <v>0.9877727738256336</v>
+        <v>1.015223008772851</v>
       </c>
       <c r="K22">
-        <v>1.045693631844373</v>
+        <v>1.050318987989736</v>
       </c>
       <c r="L22">
-        <v>0.9856252694350315</v>
+        <v>1.014699985410084</v>
       </c>
       <c r="M22">
-        <v>1.035791301995864</v>
+        <v>1.051561046180074</v>
       </c>
       <c r="N22">
-        <v>0.9997394232552124</v>
+        <v>1.009173483403991</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.956713240090263</v>
+        <v>1.008516589553684</v>
       </c>
       <c r="D23">
-        <v>1.031850287569075</v>
+        <v>1.046868496439214</v>
       </c>
       <c r="E23">
-        <v>0.9708087642226272</v>
+        <v>1.011176366601103</v>
       </c>
       <c r="F23">
-        <v>1.02202362171267</v>
+        <v>1.048176420821071</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050491905266878</v>
+        <v>1.038329104889876</v>
       </c>
       <c r="J23">
-        <v>0.9887677888962261</v>
+        <v>1.015425251804179</v>
       </c>
       <c r="K23">
-        <v>1.046517297688768</v>
+        <v>1.050468620797968</v>
       </c>
       <c r="L23">
-        <v>0.9866547499886382</v>
+        <v>1.01491381871122</v>
       </c>
       <c r="M23">
-        <v>1.036868046207433</v>
+        <v>1.051771709476937</v>
       </c>
       <c r="N23">
-        <v>1.000081919128652</v>
+        <v>1.009241962393054</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9636269543530377</v>
+        <v>1.009851348476135</v>
       </c>
       <c r="D24">
-        <v>1.036263446081799</v>
+        <v>1.047726289351752</v>
       </c>
       <c r="E24">
-        <v>0.976166046992772</v>
+        <v>1.012301856485653</v>
       </c>
       <c r="F24">
-        <v>1.027453390633308</v>
+        <v>1.049275947987857</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051859494007265</v>
+        <v>1.038488076733085</v>
       </c>
       <c r="J24">
-        <v>0.9926008027232452</v>
+        <v>1.016222093774457</v>
       </c>
       <c r="K24">
-        <v>1.049682318099575</v>
+        <v>1.051055933676601</v>
       </c>
       <c r="L24">
-        <v>0.9906250535093795</v>
+        <v>1.015756754684581</v>
       </c>
       <c r="M24">
-        <v>1.041014956738991</v>
+        <v>1.052600325384423</v>
       </c>
       <c r="N24">
-        <v>1.001400609826719</v>
+        <v>1.009511564011651</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9713543750782112</v>
+        <v>1.011404263861287</v>
       </c>
       <c r="D25">
-        <v>1.041210453020555</v>
+        <v>1.048721262702417</v>
       </c>
       <c r="E25">
-        <v>0.9821913236775131</v>
+        <v>1.013613228261023</v>
       </c>
       <c r="F25">
-        <v>1.033546807789501</v>
+        <v>1.050553393945252</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053344399250273</v>
+        <v>1.038666296766876</v>
       </c>
       <c r="J25">
-        <v>0.9968857897875745</v>
+        <v>1.017148048830489</v>
       </c>
       <c r="K25">
-        <v>1.053201022655279</v>
+        <v>1.051733730245339</v>
       </c>
       <c r="L25">
-        <v>0.995072534038659</v>
+        <v>1.016737156624945</v>
       </c>
       <c r="M25">
-        <v>1.045645753074015</v>
+        <v>1.053560268090373</v>
       </c>
       <c r="N25">
-        <v>1.002873197355515</v>
+        <v>1.009824418002891</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_243/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_243/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012646048344971</v>
+        <v>0.9773010332741475</v>
       </c>
       <c r="D2">
-        <v>1.049514405841244</v>
+        <v>1.045023664615416</v>
       </c>
       <c r="E2">
-        <v>1.01466339299724</v>
+        <v>0.9868557805450833</v>
       </c>
       <c r="F2">
-        <v>1.051573407879197</v>
+        <v>1.038250557377306</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038803366697091</v>
+        <v>1.054449437877184</v>
       </c>
       <c r="J2">
-        <v>1.01788756760643</v>
+        <v>1.000182531476387</v>
       </c>
       <c r="K2">
-        <v>1.0522712518193</v>
+        <v>1.055889457336342</v>
       </c>
       <c r="L2">
-        <v>1.017520870022129</v>
+        <v>0.9985013242790224</v>
       </c>
       <c r="M2">
-        <v>1.054324534896809</v>
+        <v>1.049201530980095</v>
       </c>
       <c r="N2">
-        <v>1.010073930159328</v>
+        <v>1.004004679222087</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013549519963768</v>
+        <v>0.981502937849709</v>
       </c>
       <c r="D3">
-        <v>1.050089998678811</v>
+        <v>1.047719211873955</v>
       </c>
       <c r="E3">
-        <v>1.015428324143953</v>
+        <v>0.9901666517840316</v>
       </c>
       <c r="F3">
-        <v>1.052314638827817</v>
+        <v>1.041580271031763</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038899930785042</v>
+        <v>1.055207166010439</v>
       </c>
       <c r="J3">
-        <v>1.018425072773582</v>
+        <v>1.002510875057892</v>
       </c>
       <c r="K3">
-        <v>1.052659717375361</v>
+        <v>1.057775861704385</v>
       </c>
       <c r="L3">
-        <v>1.018090907799843</v>
+        <v>1.000926917780806</v>
       </c>
       <c r="M3">
-        <v>1.054878622829201</v>
+        <v>1.051707393310739</v>
       </c>
       <c r="N3">
-        <v>1.010255078974674</v>
+        <v>1.004802838473245</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014134964783015</v>
+        <v>0.9841712097701135</v>
       </c>
       <c r="D4">
-        <v>1.050462293400085</v>
+        <v>1.049430679026217</v>
       </c>
       <c r="E4">
-        <v>1.01592439557604</v>
+        <v>0.9922757098653257</v>
       </c>
       <c r="F4">
-        <v>1.052794532978703</v>
+        <v>1.0436967528622</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038961038847567</v>
+        <v>1.055677235941793</v>
       </c>
       <c r="J4">
-        <v>1.018773122249264</v>
+        <v>1.003988671263164</v>
       </c>
       <c r="K4">
-        <v>1.052910226330724</v>
+        <v>1.058966992242401</v>
       </c>
       <c r="L4">
-        <v>1.018460212566834</v>
+        <v>1.002468263015124</v>
       </c>
       <c r="M4">
-        <v>1.05523675501084</v>
+        <v>1.053294919514139</v>
       </c>
       <c r="N4">
-        <v>1.010372282890692</v>
+        <v>1.005308954366554</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014381285224642</v>
+        <v>0.9852812461775943</v>
       </c>
       <c r="D5">
-        <v>1.050618767394655</v>
+        <v>1.05014250264719</v>
       </c>
       <c r="E5">
-        <v>1.016133208115818</v>
+        <v>0.9931546451724734</v>
       </c>
       <c r="F5">
-        <v>1.052996342327701</v>
+        <v>1.044577627618544</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038986398566641</v>
+        <v>1.055870068501449</v>
       </c>
       <c r="J5">
-        <v>1.018919500447361</v>
+        <v>1.004603246716072</v>
       </c>
       <c r="K5">
-        <v>1.05301533404406</v>
+        <v>1.059460803648934</v>
       </c>
       <c r="L5">
-        <v>1.018615575347287</v>
+        <v>1.003109701724913</v>
       </c>
       <c r="M5">
-        <v>1.055387216078205</v>
+        <v>1.053954361188612</v>
       </c>
       <c r="N5">
-        <v>1.010421552222402</v>
+        <v>1.005519315707793</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014422655169865</v>
+        <v>0.9854669515915145</v>
       </c>
       <c r="D6">
-        <v>1.050645037731904</v>
+        <v>1.050261575274822</v>
       </c>
       <c r="E6">
-        <v>1.016168284101487</v>
+        <v>0.9933017773146566</v>
       </c>
       <c r="F6">
-        <v>1.053030230563736</v>
+        <v>1.044725015000363</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038990637192582</v>
+        <v>1.055902166999545</v>
       </c>
       <c r="J6">
-        <v>1.018944081371784</v>
+        <v>1.00470605009477</v>
       </c>
       <c r="K6">
-        <v>1.053032969946069</v>
+        <v>1.059543313257095</v>
       </c>
       <c r="L6">
-        <v>1.018641667684639</v>
+        <v>1.003217024154194</v>
       </c>
       <c r="M6">
-        <v>1.055412473366001</v>
+        <v>1.054064622697744</v>
       </c>
       <c r="N6">
-        <v>1.010429824559692</v>
+        <v>1.005554496888602</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014138255346696</v>
+        <v>0.9841860875833816</v>
       </c>
       <c r="D7">
-        <v>1.050464384368182</v>
+        <v>1.049440220407229</v>
       </c>
       <c r="E7">
-        <v>1.015927184703638</v>
+        <v>0.9922874842125272</v>
       </c>
       <c r="F7">
-        <v>1.052797229325055</v>
+        <v>1.043708557817524</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038961379003549</v>
+        <v>1.055679831304886</v>
       </c>
       <c r="J7">
-        <v>1.018775077934608</v>
+        <v>1.003996909273674</v>
       </c>
       <c r="K7">
-        <v>1.052911631597771</v>
+        <v>1.058973617684336</v>
       </c>
       <c r="L7">
-        <v>1.018462288112761</v>
+        <v>1.002476859397176</v>
       </c>
       <c r="M7">
-        <v>1.055238765865416</v>
+        <v>1.053303762040728</v>
       </c>
       <c r="N7">
-        <v>1.010372941243026</v>
+        <v>1.005311774606906</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012951206490113</v>
+        <v>0.9787318304718857</v>
       </c>
       <c r="D8">
-        <v>1.049708960334244</v>
+        <v>1.045941512658696</v>
       </c>
       <c r="E8">
-        <v>1.014921674308181</v>
+        <v>0.9879817587001473</v>
       </c>
       <c r="F8">
-        <v>1.051823853412143</v>
+        <v>1.039383866039518</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038836285251459</v>
+        <v>1.054709740678639</v>
       </c>
       <c r="J8">
-        <v>1.01806916804702</v>
+        <v>1.000975494790517</v>
       </c>
       <c r="K8">
-        <v>1.0524027113997</v>
+        <v>1.056533159891146</v>
       </c>
       <c r="L8">
-        <v>1.017713422601904</v>
+        <v>0.9993270238572088</v>
       </c>
       <c r="M8">
-        <v>1.054511873081068</v>
+        <v>1.050055529663312</v>
       </c>
       <c r="N8">
-        <v>1.010135152358495</v>
+        <v>1.004276604646875</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01086595001112</v>
+        <v>0.9687130558035348</v>
       </c>
       <c r="D9">
-        <v>1.048376738660991</v>
+        <v>1.039518179298625</v>
       </c>
       <c r="E9">
-        <v>1.013158406652278</v>
+        <v>0.9801273011340712</v>
       </c>
       <c r="F9">
-        <v>1.050110798263228</v>
+        <v>1.031461380634017</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038605357832151</v>
+        <v>1.052842600658562</v>
       </c>
       <c r="J9">
-        <v>1.016827210280421</v>
+        <v>0.995421160490919</v>
       </c>
       <c r="K9">
-        <v>1.051499463574233</v>
+        <v>1.052001063151638</v>
       </c>
       <c r="L9">
-        <v>1.016397342479376</v>
+        <v>0.9935512434484237</v>
       </c>
       <c r="M9">
-        <v>1.053228021616085</v>
+        <v>1.044063838641592</v>
       </c>
       <c r="N9">
-        <v>1.009716069758664</v>
+        <v>1.002370080054607</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009480206423023</v>
+        <v>0.9617304017000813</v>
       </c>
       <c r="D10">
-        <v>1.047488006061471</v>
+        <v>1.035051413260977</v>
       </c>
       <c r="E10">
-        <v>1.011988751501408</v>
+        <v>0.9746933338241065</v>
       </c>
       <c r="F10">
-        <v>1.048970352184437</v>
+        <v>1.02596168011273</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038444399525735</v>
+        <v>1.051487695932294</v>
       </c>
       <c r="J10">
-        <v>1.016000611978144</v>
+        <v>0.9915491982652499</v>
       </c>
       <c r="K10">
-        <v>1.050893055294736</v>
+        <v>1.048815385720245</v>
       </c>
       <c r="L10">
-        <v>1.015522391729899</v>
+        <v>0.989535051722192</v>
       </c>
       <c r="M10">
-        <v>1.052370240413999</v>
+        <v>1.039877493006474</v>
       </c>
       <c r="N10">
-        <v>1.009436662055396</v>
+        <v>1.00103893889868</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008881229647502</v>
+        <v>0.9586277851966019</v>
       </c>
       <c r="D11">
-        <v>1.047103064505667</v>
+        <v>1.033070879325279</v>
       </c>
       <c r="E11">
-        <v>1.011483686956871</v>
+        <v>0.9722891769028672</v>
       </c>
       <c r="F11">
-        <v>1.048476933331566</v>
+        <v>1.023524939566379</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038373051525875</v>
+        <v>1.050873897774446</v>
       </c>
       <c r="J11">
-        <v>1.015643025308107</v>
+        <v>0.9898290626045149</v>
       </c>
       <c r="K11">
-        <v>1.050629489363753</v>
+        <v>1.047394960822987</v>
       </c>
       <c r="L11">
-        <v>1.015144121257898</v>
+        <v>0.987753308479666</v>
       </c>
       <c r="M11">
-        <v>1.051998390849902</v>
+        <v>1.038016440276679</v>
       </c>
       <c r="N11">
-        <v>1.009315676442769</v>
+        <v>1.000447147813367</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008658903373573</v>
+        <v>0.9574628064608631</v>
       </c>
       <c r="D12">
-        <v>1.046960065156247</v>
+        <v>1.032328014832088</v>
       </c>
       <c r="E12">
-        <v>1.011296296024092</v>
+        <v>0.9713880792560031</v>
       </c>
       <c r="F12">
-        <v>1.048293718366304</v>
+        <v>1.022611186678476</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038346302348901</v>
+        <v>1.05064174210566</v>
       </c>
       <c r="J12">
-        <v>1.01551025325309</v>
+        <v>0.9891832709260505</v>
       </c>
       <c r="K12">
-        <v>1.050531442699739</v>
+        <v>1.046861006990362</v>
       </c>
       <c r="L12">
-        <v>1.015003704460805</v>
+        <v>0.9870847637908803</v>
       </c>
       <c r="M12">
-        <v>1.051860207593467</v>
+        <v>1.037317645252595</v>
       </c>
       <c r="N12">
-        <v>1.009270737411528</v>
+        <v>1.000224913345526</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008706585837371</v>
+        <v>0.9577132761855125</v>
       </c>
       <c r="D13">
-        <v>1.046990739640538</v>
+        <v>1.032487691801562</v>
       </c>
       <c r="E13">
-        <v>1.011336482372077</v>
+        <v>0.9715817402725933</v>
       </c>
       <c r="F13">
-        <v>1.04833301571957</v>
+        <v>1.022807586137404</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038352051317941</v>
+        <v>1.05069173020335</v>
       </c>
       <c r="J13">
-        <v>1.015538730958941</v>
+        <v>0.9893221109739863</v>
       </c>
       <c r="K13">
-        <v>1.050552480645043</v>
+        <v>1.046975832087796</v>
       </c>
       <c r="L13">
-        <v>1.015033820261919</v>
+        <v>0.9872284784503549</v>
       </c>
       <c r="M13">
-        <v>1.051889851133868</v>
+        <v>1.037467883583423</v>
       </c>
       <c r="N13">
-        <v>1.009280376960445</v>
+        <v>1.000272694499126</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00886284880979</v>
+        <v>0.9585317471726226</v>
       </c>
       <c r="D14">
-        <v>1.047091244425948</v>
+        <v>1.033009622322887</v>
       </c>
       <c r="E14">
-        <v>1.011468192819089</v>
+        <v>0.9722148592123814</v>
       </c>
       <c r="F14">
-        <v>1.048461787431135</v>
+        <v>1.023449586647096</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038370845471637</v>
+        <v>1.05085479319123</v>
       </c>
       <c r="J14">
-        <v>1.015632049270542</v>
+        <v>0.9897758230229572</v>
       </c>
       <c r="K14">
-        <v>1.050621387775144</v>
+        <v>1.04735095456592</v>
       </c>
       <c r="L14">
-        <v>1.01513251252481</v>
+        <v>0.9876981854348482</v>
       </c>
       <c r="M14">
-        <v>1.051986969827245</v>
+        <v>1.03795883253658</v>
       </c>
       <c r="N14">
-        <v>1.009311961757433</v>
+        <v>1.000428827769187</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00895914887148</v>
+        <v>0.9590343538691717</v>
       </c>
       <c r="D15">
-        <v>1.047153166832926</v>
+        <v>1.033330238811204</v>
       </c>
       <c r="E15">
-        <v>1.011549372182659</v>
+        <v>0.9726038609672596</v>
       </c>
       <c r="F15">
-        <v>1.048541136321339</v>
+        <v>1.023843989555919</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038382392418432</v>
+        <v>1.050954707170319</v>
       </c>
       <c r="J15">
-        <v>1.015689552626729</v>
+        <v>0.9900544516864034</v>
       </c>
       <c r="K15">
-        <v>1.050663824366693</v>
+        <v>1.047581233475606</v>
       </c>
       <c r="L15">
-        <v>1.01519333200744</v>
+        <v>0.9879866865615561</v>
       </c>
       <c r="M15">
-        <v>1.052046799734717</v>
+        <v>1.038260318415214</v>
       </c>
       <c r="N15">
-        <v>1.009331422261281</v>
+        <v>1.000524703157572</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009519980961683</v>
+        <v>0.9619345916659743</v>
       </c>
       <c r="D16">
-        <v>1.047513551147912</v>
+        <v>1.035181857460417</v>
       </c>
       <c r="E16">
-        <v>1.012022300687189</v>
+        <v>0.9748517778414181</v>
       </c>
       <c r="F16">
-        <v>1.049003107439357</v>
+        <v>1.026122205351374</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038449099923684</v>
+        <v>1.051527852847816</v>
       </c>
       <c r="J16">
-        <v>1.01602435099742</v>
+        <v>0.991662414119951</v>
       </c>
       <c r="K16">
-        <v>1.050910526650357</v>
+        <v>1.048908775219789</v>
       </c>
       <c r="L16">
-        <v>1.015547508807783</v>
+        <v>0.989652374385998</v>
       </c>
       <c r="M16">
-        <v>1.052394910071232</v>
+        <v>1.039999965096915</v>
       </c>
       <c r="N16">
-        <v>1.009444691505307</v>
+        <v>1.001077881017182</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009872060587145</v>
+        <v>0.9637322178730845</v>
       </c>
       <c r="D17">
-        <v>1.047739581673024</v>
+        <v>1.036330745281888</v>
       </c>
       <c r="E17">
-        <v>1.012319333234354</v>
+        <v>0.9762478558704866</v>
       </c>
       <c r="F17">
-        <v>1.049292998990175</v>
+        <v>1.02753623122409</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038490502087838</v>
+        <v>1.05188005057342</v>
       </c>
       <c r="J17">
-        <v>1.016234451861336</v>
+        <v>0.9926591715018087</v>
       </c>
       <c r="K17">
-        <v>1.051065013436487</v>
+        <v>1.049730401961683</v>
       </c>
       <c r="L17">
-        <v>1.015769833098184</v>
+        <v>0.9906855701175342</v>
       </c>
       <c r="M17">
-        <v>1.052613158231265</v>
+        <v>1.041078082709086</v>
       </c>
       <c r="N17">
-        <v>1.009515742562786</v>
+        <v>1.001420681326501</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01007752480528</v>
+        <v>0.9647731585863271</v>
       </c>
       <c r="D18">
-        <v>1.047871410256304</v>
+        <v>1.036996412268443</v>
       </c>
       <c r="E18">
-        <v>1.012492722637071</v>
+        <v>0.9770572509854093</v>
       </c>
       <c r="F18">
-        <v>1.049462126437051</v>
+        <v>1.028355692604725</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038514491820288</v>
+        <v>1.052082871646981</v>
       </c>
       <c r="J18">
-        <v>1.016357032471509</v>
+        <v>0.9932363834528561</v>
       </c>
       <c r="K18">
-        <v>1.051155027601911</v>
+        <v>1.050205699478047</v>
       </c>
       <c r="L18">
-        <v>1.015899567841708</v>
+        <v>0.9912841171579292</v>
       </c>
       <c r="M18">
-        <v>1.052740417583015</v>
+        <v>1.041702284591648</v>
       </c>
       <c r="N18">
-        <v>1.009557185390018</v>
+        <v>1.001619152578716</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010147600080009</v>
+        <v>0.9651268250270613</v>
       </c>
       <c r="D19">
-        <v>1.047916358427537</v>
+        <v>1.037222637990667</v>
       </c>
       <c r="E19">
-        <v>1.0125518668501</v>
+        <v>0.9773324119004748</v>
       </c>
       <c r="F19">
-        <v>1.049519801001709</v>
+        <v>1.02863421566622</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038522644628141</v>
+        <v>1.052151588350893</v>
       </c>
       <c r="J19">
-        <v>1.016398834742303</v>
+        <v>0.9934324980520348</v>
       </c>
       <c r="K19">
-        <v>1.051185703877111</v>
+        <v>1.050367100190404</v>
       </c>
       <c r="L19">
-        <v>1.015943813624924</v>
+        <v>0.991487520137622</v>
       </c>
       <c r="M19">
-        <v>1.05278380269903</v>
+        <v>1.041914340785346</v>
       </c>
       <c r="N19">
-        <v>1.009571316300615</v>
+        <v>1.001686578425118</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009834275202882</v>
+        <v>0.9635401386126884</v>
       </c>
       <c r="D20">
-        <v>1.047715331878579</v>
+        <v>1.036207943457552</v>
       </c>
       <c r="E20">
-        <v>1.012287450442286</v>
+        <v>0.9760985809049837</v>
       </c>
       <c r="F20">
-        <v>1.049261892359374</v>
+        <v>1.02738507178383</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038486076513988</v>
+        <v>1.051842533678308</v>
       </c>
       <c r="J20">
-        <v>1.016211906674948</v>
+        <v>0.9925526634045935</v>
       </c>
       <c r="K20">
-        <v>1.051048448317499</v>
+        <v>1.049642658377083</v>
       </c>
       <c r="L20">
-        <v>1.01574597392759</v>
+        <v>0.9905751441033133</v>
       </c>
       <c r="M20">
-        <v>1.052589746506485</v>
+        <v>1.040962893234657</v>
       </c>
       <c r="N20">
-        <v>1.009508119458941</v>
+        <v>1.001384055739183</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008816828822374</v>
+        <v>0.958291079142453</v>
       </c>
       <c r="D21">
-        <v>1.047061648665127</v>
+        <v>1.032856127671898</v>
       </c>
       <c r="E21">
-        <v>1.011429401495493</v>
+        <v>0.9720286479726454</v>
       </c>
       <c r="F21">
-        <v>1.048423865619759</v>
+        <v>1.023260774683532</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038365317883223</v>
+        <v>1.050806890892909</v>
       </c>
       <c r="J21">
-        <v>1.015604567921654</v>
+        <v>0.9896424080328948</v>
       </c>
       <c r="K21">
-        <v>1.05060110037392</v>
+        <v>1.04724066702464</v>
       </c>
       <c r="L21">
-        <v>1.01510344762737</v>
+        <v>0.9875600566907764</v>
       </c>
       <c r="M21">
-        <v>1.051958372481621</v>
+        <v>1.037814469939712</v>
       </c>
       <c r="N21">
-        <v>1.00930266080698</v>
+        <v>1.000382917996058</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008178048358253</v>
+        <v>0.9549179464045331</v>
       </c>
       <c r="D22">
-        <v>1.046650566908443</v>
+        <v>1.030706890132443</v>
       </c>
       <c r="E22">
-        <v>1.010891142481755</v>
+        <v>0.9694227198728735</v>
       </c>
       <c r="F22">
-        <v>1.047897329275079</v>
+        <v>1.0206175082703</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038287961445338</v>
+        <v>1.050131602834436</v>
       </c>
       <c r="J22">
-        <v>1.015223008772851</v>
+        <v>0.9877727738256331</v>
       </c>
       <c r="K22">
-        <v>1.050318987989736</v>
+        <v>1.045693631844373</v>
       </c>
       <c r="L22">
-        <v>1.014699985410084</v>
+        <v>0.9856252694350307</v>
       </c>
       <c r="M22">
-        <v>1.051561046180074</v>
+        <v>1.035791301995864</v>
       </c>
       <c r="N22">
-        <v>1.009173483403991</v>
+        <v>0.9997394232552123</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008516589553684</v>
+        <v>0.9567132400902629</v>
       </c>
       <c r="D23">
-        <v>1.046868496439214</v>
+        <v>1.031850287569075</v>
       </c>
       <c r="E23">
-        <v>1.011176366601103</v>
+        <v>0.970808764222627</v>
       </c>
       <c r="F23">
-        <v>1.048176420821071</v>
+        <v>1.02202362171267</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038329104889876</v>
+        <v>1.050491905266878</v>
       </c>
       <c r="J23">
-        <v>1.015425251804179</v>
+        <v>0.988767788896226</v>
       </c>
       <c r="K23">
-        <v>1.050468620797968</v>
+        <v>1.046517297688768</v>
       </c>
       <c r="L23">
-        <v>1.01491381871122</v>
+        <v>0.9866547499886378</v>
       </c>
       <c r="M23">
-        <v>1.051771709476937</v>
+        <v>1.036868046207434</v>
       </c>
       <c r="N23">
-        <v>1.009241962393054</v>
+        <v>1.000081919128652</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009851348476135</v>
+        <v>0.9636269543530378</v>
       </c>
       <c r="D24">
-        <v>1.047726289351752</v>
+        <v>1.036263446081799</v>
       </c>
       <c r="E24">
-        <v>1.012301856485653</v>
+        <v>0.9761660469927721</v>
       </c>
       <c r="F24">
-        <v>1.049275947987857</v>
+        <v>1.027453390633308</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038488076733085</v>
+        <v>1.051859494007265</v>
       </c>
       <c r="J24">
-        <v>1.016222093774457</v>
+        <v>0.9926008027232451</v>
       </c>
       <c r="K24">
-        <v>1.051055933676601</v>
+        <v>1.049682318099575</v>
       </c>
       <c r="L24">
-        <v>1.015756754684581</v>
+        <v>0.9906250535093792</v>
       </c>
       <c r="M24">
-        <v>1.052600325384423</v>
+        <v>1.041014956738991</v>
       </c>
       <c r="N24">
-        <v>1.009511564011651</v>
+        <v>1.001400609826719</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011404263861287</v>
+        <v>0.971354375078211</v>
       </c>
       <c r="D25">
-        <v>1.048721262702417</v>
+        <v>1.041210453020555</v>
       </c>
       <c r="E25">
-        <v>1.013613228261023</v>
+        <v>0.9821913236775129</v>
       </c>
       <c r="F25">
-        <v>1.050553393945252</v>
+        <v>1.033546807789501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038666296766876</v>
+        <v>1.053344399250273</v>
       </c>
       <c r="J25">
-        <v>1.017148048830489</v>
+        <v>0.9968857897875746</v>
       </c>
       <c r="K25">
-        <v>1.051733730245339</v>
+        <v>1.053201022655279</v>
       </c>
       <c r="L25">
-        <v>1.016737156624945</v>
+        <v>0.9950725340386589</v>
       </c>
       <c r="M25">
-        <v>1.053560268090373</v>
+        <v>1.045645753074015</v>
       </c>
       <c r="N25">
-        <v>1.009824418002891</v>
+        <v>1.002873197355515</v>
       </c>
     </row>
   </sheetData>
